--- a/Quiz_QA.xlsx
+++ b/Quiz_QA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>S.No</t>
   </si>
@@ -22,39 +22,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>bun</t>
-  </si>
-  <si>
-    <t>wen</t>
-  </si>
-  <si>
-    <t>jon</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
     <t>Option1</t>
   </si>
   <si>
@@ -68,14 +35,121 @@
   </si>
   <si>
     <t>Answer</t>
+  </si>
+  <si>
+    <t>What is the largest type of ‘big cat’ in the world?</t>
+  </si>
+  <si>
+    <t>Bees are found on every continent of the Earth except for one.  Which is it?</t>
+  </si>
+  <si>
+    <t>Which is the only continent on the Earth where giraffes live in the wild?</t>
+  </si>
+  <si>
+    <t>What is the most recognisable feature of a hedgehog’s appearance?</t>
+  </si>
+  <si>
+    <t>Which animal was held in high esteem in ancient Egypt?</t>
+  </si>
+  <si>
+    <t>Cats are unable to detect which taste?</t>
+  </si>
+  <si>
+    <t>What is the name for the fear of dogs?</t>
+  </si>
+  <si>
+    <t>What is a dog’s most powerful sense?</t>
+  </si>
+  <si>
+    <t>Which ocean lies between North America and Europe?</t>
+  </si>
+  <si>
+    <t>Grand Central Terminal, Park Avenue, New York is the world’s _________.</t>
+  </si>
+  <si>
+    <t>What is the name of the most faraway island in the world that has no close neighbours?</t>
+  </si>
+  <si>
+    <t>The statue of Christ the Redeemer (130 feet tall) is in which city?</t>
+  </si>
+  <si>
+    <t>The Colosseum which was completed in 80 BCE is in the centre of which city?</t>
+  </si>
+  <si>
+    <t>The Grand Palace constructed in 1782 by King Rama I is in which city?</t>
+  </si>
+  <si>
+    <t>Which bird is one of Mumbai's best-loved winter visitors?</t>
+  </si>
+  <si>
+    <t>Which bulbul was once a popular cage bird?</t>
+  </si>
+  <si>
+    <t>When does a barn owl come out to hunt?</t>
+  </si>
+  <si>
+    <t>Which bird holds its tail upright when foraging or singing?</t>
+  </si>
+  <si>
+    <t>Which bird has a heart-shaped facial disc and black button eyes?</t>
+  </si>
+  <si>
+    <t>What is a bird of prey also known as?</t>
+  </si>
+  <si>
+    <t>Where are black kites usually found in a big city?</t>
+  </si>
+  <si>
+    <t>Name the bird that can mimic alarms and phone bells.</t>
+  </si>
+  <si>
+    <t>What feature identifies a black kite in flight?</t>
+  </si>
+  <si>
+    <t>What is an animal that hunts at night called?</t>
+  </si>
+  <si>
+    <t>Mary's father had 5 children- Mimi, Mumu, Mama, Meme. What was the 5th child's name?</t>
+  </si>
+  <si>
+    <t>If you pass the 2nd person in a race, what position are you in?</t>
+  </si>
+  <si>
+    <t>A doctor gives you 3 pills and tells you to take 1 every half an hour. How long would it be before the pills have been taken?</t>
+  </si>
+  <si>
+    <t>I don't speak, I cannot hear, but I always tell the truth. Who am I?</t>
+  </si>
+  <si>
+    <t>An old man was looking at a photograph of a young man. Somebody asked him who it was. The man's answer was the following: 'Brothers and sisters I have none. But that man's father is my father's son.' Who was in the photograph?</t>
+  </si>
+  <si>
+    <t>It is estimated that millions of trees worldwide are accidentally planted by a species with a bad memory? Name the species.</t>
+  </si>
+  <si>
+    <t>In space, which sad thing can astronauts not perform properly?</t>
+  </si>
+  <si>
+    <t>If you're facing the Sun at noon in the Northern Hemisphere, walking towards it will take you in what direction?</t>
+  </si>
+  <si>
+    <t>How do you know when the bright side of the Moon is in the west?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -99,12 +173,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,15 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="84.7265625" customWidth="1"/>
     <col min="3" max="3" width="15.453125" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" customWidth="1"/>
     <col min="5" max="5" width="15.08984375" customWidth="1"/>
@@ -415,99 +518,460 @@
     <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>400</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Quiz_QA.xlsx
+++ b/Quiz_QA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>S.No</t>
   </si>
@@ -61,79 +61,88 @@
     <t>What is a dog’s most powerful sense?</t>
   </si>
   <si>
-    <t>Which ocean lies between North America and Europe?</t>
-  </si>
-  <si>
-    <t>Grand Central Terminal, Park Avenue, New York is the world’s _________.</t>
-  </si>
-  <si>
-    <t>What is the name of the most faraway island in the world that has no close neighbours?</t>
-  </si>
-  <si>
-    <t>The statue of Christ the Redeemer (130 feet tall) is in which city?</t>
-  </si>
-  <si>
-    <t>The Colosseum which was completed in 80 BCE is in the centre of which city?</t>
-  </si>
-  <si>
-    <t>The Grand Palace constructed in 1782 by King Rama I is in which city?</t>
-  </si>
-  <si>
-    <t>Which bird is one of Mumbai's best-loved winter visitors?</t>
-  </si>
-  <si>
-    <t>Which bulbul was once a popular cage bird?</t>
-  </si>
-  <si>
-    <t>When does a barn owl come out to hunt?</t>
-  </si>
-  <si>
-    <t>Which bird holds its tail upright when foraging or singing?</t>
-  </si>
-  <si>
-    <t>Which bird has a heart-shaped facial disc and black button eyes?</t>
-  </si>
-  <si>
-    <t>What is a bird of prey also known as?</t>
-  </si>
-  <si>
-    <t>Where are black kites usually found in a big city?</t>
-  </si>
-  <si>
-    <t>Name the bird that can mimic alarms and phone bells.</t>
-  </si>
-  <si>
-    <t>What feature identifies a black kite in flight?</t>
-  </si>
-  <si>
-    <t>What is an animal that hunts at night called?</t>
-  </si>
-  <si>
-    <t>Mary's father had 5 children- Mimi, Mumu, Mama, Meme. What was the 5th child's name?</t>
-  </si>
-  <si>
-    <t>If you pass the 2nd person in a race, what position are you in?</t>
-  </si>
-  <si>
-    <t>A doctor gives you 3 pills and tells you to take 1 every half an hour. How long would it be before the pills have been taken?</t>
-  </si>
-  <si>
-    <t>I don't speak, I cannot hear, but I always tell the truth. Who am I?</t>
-  </si>
-  <si>
-    <t>An old man was looking at a photograph of a young man. Somebody asked him who it was. The man's answer was the following: 'Brothers and sisters I have none. But that man's father is my father's son.' Who was in the photograph?</t>
-  </si>
-  <si>
-    <t>It is estimated that millions of trees worldwide are accidentally planted by a species with a bad memory? Name the species.</t>
-  </si>
-  <si>
-    <t>In space, which sad thing can astronauts not perform properly?</t>
-  </si>
-  <si>
-    <t>If you're facing the Sun at noon in the Northern Hemisphere, walking towards it will take you in what direction?</t>
-  </si>
-  <si>
-    <t>How do you know when the bright side of the Moon is in the west?</t>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>liger</t>
+  </si>
+  <si>
+    <t>panther</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>snout</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>spines</t>
+  </si>
+  <si>
+    <t>hump</t>
+  </si>
+  <si>
+    <t>zebra</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>elephant</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>sour</t>
+  </si>
+  <si>
+    <t>salty</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>zoophobia</t>
+  </si>
+  <si>
+    <t>cynophobia</t>
+  </si>
+  <si>
+    <t>arachnophobia</t>
+  </si>
+  <si>
+    <t>ichthyophobia</t>
+  </si>
+  <si>
+    <t>sight</t>
+  </si>
+  <si>
+    <t>taste</t>
+  </si>
+  <si>
+    <t>smell</t>
+  </si>
+  <si>
+    <t>hearing</t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -548,11 +557,21 @@
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
@@ -561,11 +580,21 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4">
@@ -574,11 +603,21 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
@@ -587,11 +626,21 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4">
@@ -600,11 +649,21 @@
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4">
@@ -613,11 +672,21 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4">
@@ -626,11 +695,21 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4">
@@ -639,19 +718,25 @@
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -659,12 +744,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -672,12 +753,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -685,12 +762,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -698,12 +771,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -711,12 +780,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -724,12 +789,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -737,12 +798,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -750,12 +807,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -763,12 +816,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -776,12 +825,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -789,12 +834,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -802,12 +843,8 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -815,12 +852,8 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -828,12 +861,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -841,12 +870,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -854,12 +879,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -867,12 +888,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -880,12 +897,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -893,12 +906,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -906,12 +915,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -919,12 +924,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -932,12 +933,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -945,12 +942,8 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -958,12 +951,8 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>

--- a/Quiz_QA.xlsx
+++ b/Quiz_QA.xlsx
@@ -510,11 +510,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -655,7 +653,7 @@
       <c r="D6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -672,19 +670,19 @@
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -695,7 +693,7 @@
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -727,237 +725,12 @@
       <c r="E9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Quiz_QA.xlsx
+++ b/Quiz_QA.xlsx
@@ -149,16 +149,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,7 +166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -182,40 +174,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,20 +483,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="84.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -549,186 +523,186 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Quiz_QA.xlsx
+++ b/Quiz_QA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="177">
   <si>
     <t>S.No</t>
   </si>
@@ -61,6 +61,81 @@
     <t>What is a dog’s most powerful sense?</t>
   </si>
   <si>
+    <t>Which ocean lies between North America and Europe?</t>
+  </si>
+  <si>
+    <t>Grand Central Terminal, Park Avenue, New York is the world’s _________.</t>
+  </si>
+  <si>
+    <t>What is the name of the most faraway island in the world that has no close neighbours?</t>
+  </si>
+  <si>
+    <t>The statue of Christ the Redeemer (130 feet tall) is in which city?</t>
+  </si>
+  <si>
+    <t>The Colosseum which was completed in 80 BCE is in the centre of which city?</t>
+  </si>
+  <si>
+    <t>The Grand Palace constructed in 1782 by King Rama I is in which city?</t>
+  </si>
+  <si>
+    <t>Which bird is one of Mumbai's best-loved winter visitors?</t>
+  </si>
+  <si>
+    <t>Which bulbul was once a popular cage bird?</t>
+  </si>
+  <si>
+    <t>When does a barn owl come out to hunt?</t>
+  </si>
+  <si>
+    <t>Which bird holds its tail upright when foraging or singing?</t>
+  </si>
+  <si>
+    <t>Which bird has a heart-shaped facial disc and black button eyes?</t>
+  </si>
+  <si>
+    <t>What is a bird of prey also known as?</t>
+  </si>
+  <si>
+    <t>Where are black kites usually found in a big city?</t>
+  </si>
+  <si>
+    <t>Name the bird that can mimic alarms and phone bells.</t>
+  </si>
+  <si>
+    <t>What feature identifies a black kite in flight?</t>
+  </si>
+  <si>
+    <t>What is an animal that hunts at night called?</t>
+  </si>
+  <si>
+    <t>Mary's father had 5 children- Mimi, Mumu, Mama, Meme. What was the 5th child's name?</t>
+  </si>
+  <si>
+    <t>If you pass the 2nd person in a race, what position are you in?</t>
+  </si>
+  <si>
+    <t>A doctor gives you 3 pills and tells you to take 1 every half an hour. How long would it be before the pills have been taken?</t>
+  </si>
+  <si>
+    <t>I don't speak, I cannot hear, but I always tell the truth. Who am I?</t>
+  </si>
+  <si>
+    <t>An old man was looking at a photograph of a young man. Somebody asked him who it was. The man's answer was the following: 'Brothers and sisters I have none. But that man's father is my father's son.' Who was in the photograph?</t>
+  </si>
+  <si>
+    <t>It is estimated that millions of trees worldwide are accidentally planted by a species with a bad memory? Name the species.</t>
+  </si>
+  <si>
+    <t>In space, which sad thing can astronauts not perform properly?</t>
+  </si>
+  <si>
+    <t>If you're facing the Sun at noon in the Northern Hemisphere, walking towards it will take you in what direction?</t>
+  </si>
+  <si>
+    <t>How do you know when the bright side of the Moon is in the west?</t>
+  </si>
+  <si>
     <t>lion</t>
   </si>
   <si>
@@ -143,6 +218,333 @@
   </si>
   <si>
     <t>hearing</t>
+  </si>
+  <si>
+    <t>Antarctic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic </t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>largest railway station.</t>
+  </si>
+  <si>
+    <t>longest railway station.</t>
+  </si>
+  <si>
+    <t>highest railway station.</t>
+  </si>
+  <si>
+    <t>most populated railway station.</t>
+  </si>
+  <si>
+    <t>Easter Island</t>
+  </si>
+  <si>
+    <t>New Year's Island</t>
+  </si>
+  <si>
+    <t>Halloween Island</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Brasilia</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris   </t>
+  </si>
+  <si>
+    <t>Athens</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>magpie robin</t>
+  </si>
+  <si>
+    <t>common myna</t>
+  </si>
+  <si>
+    <t>barn owl</t>
+  </si>
+  <si>
+    <t>red-vented bulbul</t>
+  </si>
+  <si>
+    <t>raptor</t>
+  </si>
+  <si>
+    <t>nocturnal</t>
+  </si>
+  <si>
+    <t>At night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at garbage dumps  </t>
+  </si>
+  <si>
+    <t>a slightly forked tail</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>90 minutes</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>his son</t>
+  </si>
+  <si>
+    <t>squirrels</t>
+  </si>
+  <si>
+    <t>cry</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>when the Moon rises before sunset</t>
+  </si>
+  <si>
+    <t>when there is no Moon</t>
+  </si>
+  <si>
+    <t>when the Moon is full</t>
+  </si>
+  <si>
+    <t>when the Moon rises after midnight</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>hiccup</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>sneeze</t>
+  </si>
+  <si>
+    <t>tigers</t>
+  </si>
+  <si>
+    <t>elephants</t>
+  </si>
+  <si>
+    <t>hippopotamus</t>
+  </si>
+  <si>
+    <t>his cousin</t>
+  </si>
+  <si>
+    <t>his grandfather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old granny </t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>120 minutes</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>60 minutes</t>
+  </si>
+  <si>
+    <t>none of these</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>Morie</t>
+  </si>
+  <si>
+    <t>impossible to know</t>
+  </si>
+  <si>
+    <t>The leather garment worn by cowboys over their normal trousers are called ____________</t>
+  </si>
+  <si>
+    <t>The traditional footwear of Rajasthan is called ____________</t>
+  </si>
+  <si>
+    <t>This type of a top is similar to a kurta, but it is tighter and shorter.  It is worn by women.  What is it called?</t>
+  </si>
+  <si>
+    <t>A patterned woollen cloth consisting of criss-crossed, horizontal and vertical bands in multiple colours is called _______</t>
+  </si>
+  <si>
+    <t>In Punjab, the lungi is known as ________.</t>
+  </si>
+  <si>
+    <t>The kilt has pleats at the ________.</t>
+  </si>
+  <si>
+    <t>The wide sash that is used to secure the kimono is called ________.</t>
+  </si>
+  <si>
+    <t>The end of the sari is that is used to cover the shoulder or the head is called ________</t>
+  </si>
+  <si>
+    <t>bandanas</t>
+  </si>
+  <si>
+    <t>jeans</t>
+  </si>
+  <si>
+    <t>chaps</t>
+  </si>
+  <si>
+    <t>thawb</t>
+  </si>
+  <si>
+    <t>nagra</t>
+  </si>
+  <si>
+    <t>mojari</t>
+  </si>
+  <si>
+    <t>keffiyeh</t>
+  </si>
+  <si>
+    <t>baji</t>
+  </si>
+  <si>
+    <t>kameez</t>
+  </si>
+  <si>
+    <t>kurti</t>
+  </si>
+  <si>
+    <t>sharara</t>
+  </si>
+  <si>
+    <t>achkan</t>
+  </si>
+  <si>
+    <t>Kilt</t>
+  </si>
+  <si>
+    <t>checked cloth</t>
+  </si>
+  <si>
+    <t>tartan</t>
+  </si>
+  <si>
+    <t>yukata</t>
+  </si>
+  <si>
+    <t>Veshti</t>
+  </si>
+  <si>
+    <t>angarkha</t>
+  </si>
+  <si>
+    <t>salwar</t>
+  </si>
+  <si>
+    <t>tehmat</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>sides</t>
+  </si>
+  <si>
+    <t>all over</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>obi</t>
+  </si>
+  <si>
+    <t>chima</t>
+  </si>
+  <si>
+    <t>agal</t>
+  </si>
+  <si>
+    <t>Chuni</t>
+  </si>
+  <si>
+    <t>pallu</t>
+  </si>
+  <si>
+    <t>odhni</t>
+  </si>
+  <si>
+    <t>dori</t>
   </si>
 </sst>
 </file>
@@ -178,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,21 +884,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
     <col min="2" max="2" width="84.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -530,19 +931,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -553,19 +954,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -576,19 +977,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -599,19 +1000,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -622,19 +1023,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -645,19 +1046,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -668,19 +1069,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -691,19 +1092,778 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
+      <c r="B42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Quiz_QA.xlsx
+++ b/Quiz_QA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="178">
   <si>
     <t>S.No</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>dori</t>
+  </si>
+  <si>
+    <t>his nephew</t>
   </si>
 </sst>
 </file>
@@ -886,7 +889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1575,7 +1580,7 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
         <v>106</v>
